--- a/covid19-ita-dati-import.xlsx
+++ b/covid19-ita-dati-import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14496" windowHeight="3864"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14496" windowHeight="3864" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DatiDPC-ITA" sheetId="3" r:id="rId1"/>
@@ -3334,9 +3334,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Informazioni cronologiche</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -3692,6 +3689,9 @@
   </si>
   <si>
     <t>Crotone</t>
+  </si>
+  <si>
+    <t>Data crezione</t>
   </si>
 </sst>
 </file>
@@ -4109,7 +4109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1078"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -45043,8 +45043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -45064,25 +45064,25 @@
         <v>1087</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -45090,22 +45090,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>1099</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -45116,22 +45116,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>1104</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H3" s="2">
         <v>15</v>
@@ -45142,22 +45142,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>1108</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H4" s="2">
         <v>12</v>
@@ -45168,22 +45168,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>1111</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -45194,22 +45194,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>1115</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -45220,22 +45220,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>1119</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H7" s="2">
         <v>10</v>
@@ -45246,22 +45246,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>1123</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -45272,22 +45272,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>1126</v>
-      </c>
       <c r="E9" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>1104</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H9" s="2">
         <v>24</v>
@@ -45298,22 +45298,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>1130</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H10" s="2">
         <v>12</v>
@@ -45324,22 +45324,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>1134</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -45350,22 +45350,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>1138</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -45376,22 +45376,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>1142</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -45402,22 +45402,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>1146</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H14" s="2">
         <v>18</v>
@@ -45428,22 +45428,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>1150</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H15" s="2">
         <v>28</v>
@@ -45454,22 +45454,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>1154</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -45480,22 +45480,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>1158</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H17" s="2">
         <v>7</v>
@@ -45506,22 +45506,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>1162</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H18" s="2">
         <v>7</v>
@@ -45532,22 +45532,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>1166</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H19" s="2">
         <v>13</v>
@@ -45558,22 +45558,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>1169</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -45584,22 +45584,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>1172</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H21" s="2">
         <v>7</v>
@@ -45610,22 +45610,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>1176</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -45636,22 +45636,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>1180</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H23" s="2">
         <v>18</v>
@@ -45662,22 +45662,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>1183</v>
-      </c>
       <c r="E24" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>1104</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H24" s="2">
         <v>9</v>
@@ -45688,22 +45688,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -45714,22 +45714,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>1189</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -45740,22 +45740,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>1193</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -45766,22 +45766,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>1197</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H28" s="2">
         <v>12</v>
@@ -45792,22 +45792,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>1200</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -45818,22 +45818,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>1203</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H30" s="2">
         <v>15</v>
@@ -45844,22 +45844,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>1207</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H31" s="2">
         <v>17</v>
